--- a/images/posts/2019-02-21/VGG Configuration.xlsx
+++ b/images/posts/2019-02-21/VGG Configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebstormProjects\ChrisPage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebstormProjects\ChrisPage\images\posts\2019-02-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA0C98-F809-4FA6-A805-0F1F3D91C0D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE044F5-CD79-41B7-9A6C-A8B451B149EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{815F4B23-CC4D-4C19-877D-E2C828AA4063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{815F4B23-CC4D-4C19-877D-E2C828AA4063}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FC-4096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FC-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,10 @@
   </si>
   <si>
     <t>conv1-512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-4096 dropout=0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,16 +543,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -718,7 +718,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -792,7 +792,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -866,7 +866,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>16</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -917,7 +917,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -927,7 +927,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -937,11 +937,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:F4"/>
@@ -949,6 +944,11 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
